--- a/4.01spreadsheet.xlsx
+++ b/4.01spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Class\CS4320\4.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5950BFA7-6074-4BCC-9DEA-662176F1E248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89372F45-C02A-46F2-88A9-21C6780D0BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACDA436B-5319-412D-A9E1-F6445920A06A}"/>
   </bookViews>
@@ -34,12 +34,87 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+  <si>
+    <t>Ethical Quandry</t>
+  </si>
+  <si>
+    <t>Edward Snowden's release of Top Secret information about National Security Administration security and surveillance practices</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> retailer selling your personal information to others for profit</t>
+    </r>
+  </si>
+  <si>
+    <t>Cambridge Analytica's use of fake social media accounts to influence the 2016 presidential vote in the United States of America</t>
+  </si>
+  <si>
+    <t>Whole rather than parts</t>
+  </si>
+  <si>
+    <t>Interconnections/relationships</t>
+  </si>
+  <si>
+    <t>non-linear relationships</t>
+  </si>
+  <si>
+    <t>stock and flow relationships</t>
+  </si>
+  <si>
+    <t>dynamic behavior</t>
+  </si>
+  <si>
+    <t>feedback loops</t>
+  </si>
+  <si>
+    <t>Acknowledging that systems are important</t>
+  </si>
+  <si>
+    <t>System as the cause of its behaviors</t>
+  </si>
+  <si>
+    <t>System structure generates behavior</t>
+  </si>
+  <si>
+    <t>Delays</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,8 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +462,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F68FB3-7FE6-4378-A6E2-9E922AED72C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="112.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>